--- a/deployment/Omaha_Cal_Info_GA05MOAS-GL495_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GA05MOAS-GL495_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\GA05MOAS-GL495\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="12720" windowHeight="12408" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Ref Des</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>N00540</t>
+  </si>
+  <si>
+    <t>OL000110</t>
   </si>
 </sst>
 </file>
@@ -697,24 +700,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875"/>
-    <col min="3" max="3" width="39.44140625"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.44140625"/>
-    <col min="8" max="8" width="18.6640625"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875"/>
-    <col min="11" max="11" width="12.6640625"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875"/>
+    <col min="3" max="3" width="39.42578125"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.42578125"/>
+    <col min="8" max="8" width="18.7109375"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875"/>
+    <col min="11" max="11" width="12.7109375"/>
     <col min="12" max="12" width="34" customWidth="1"/>
-    <col min="13" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="1027" width="8.6640625"/>
+    <col min="13" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="1027" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
@@ -752,7 +755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -796,11 +799,11 @@
         <v>-42.455928333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
@@ -815,24 +818,24 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="1021" width="8.6640625"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="1021" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -858,7 +861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -887,7 +890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -916,7 +919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -945,7 +948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -974,7 +977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -983,7 +986,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -1007,7 +1010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1016,7 +1019,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1049,7 +1052,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
@@ -1062,7 +1065,9 @@
       <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
       <c r="F11" s="2">
         <v>495</v>
       </c>
@@ -1071,7 +1076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>

--- a/deployment/Omaha_Cal_Info_GA05MOAS-GL495_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GA05MOAS-GL495_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,12 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$104</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -266,13 +266,13 @@
     <border>
       <left/>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,7 +450,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,7 +485,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -696,28 +696,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875"/>
-    <col min="3" max="3" width="39.42578125"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.42578125"/>
-    <col min="8" max="8" width="18.7109375"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875"/>
-    <col min="11" max="11" width="12.7109375"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
     <col min="12" max="12" width="34" customWidth="1"/>
-    <col min="13" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="1027" width="8.7109375"/>
+    <col min="13" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="42">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
@@ -755,7 +748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -799,17 +792,22 @@
         <v>-42.455928333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -817,25 +815,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="1021" width="8.7109375"/>
+    <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="28">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -861,7 +858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -890,7 +887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -919,7 +916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -942,13 +939,13 @@
         <v>19</v>
       </c>
       <c r="H4" s="2">
-        <v>1.1299999999999999</v>
+        <v>1.0960000000000001</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -977,7 +974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="2" customFormat="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -986,7 +983,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="2" customFormat="1">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -1010,7 +1007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="2" customFormat="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1019,7 +1016,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="2" customFormat="1">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1043,7 +1040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="2" customFormat="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1052,7 +1049,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="2" customFormat="1">
       <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
@@ -1076,7 +1073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="2" customFormat="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1087,6 +1084,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/deployment/Omaha_Cal_Info_GA05MOAS-GL495_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GA05MOAS-GL495_00001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -777,7 +777,7 @@
         <v>22</v>
       </c>
       <c r="J2" s="5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>23</v>
@@ -815,7 +815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
